--- a/PatientStep2.xlsx
+++ b/PatientStep2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ppp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA33CD61-9B27-4C50-84A9-CB5F36CE6F18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E6E22E-8FEF-46F1-B0CA-21ACD8E448DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="1060" windowWidth="14400" windowHeight="7360" xr2:uid="{E935F2F4-F159-42B8-841A-CDADEC4A6F07}"/>
   </bookViews>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="330">
   <si>
     <t>Gender</t>
   </si>
@@ -1255,6 +1255,9 @@
   </si>
   <si>
     <t>Bed1</t>
+  </si>
+  <si>
+    <t>xxxx</t>
   </si>
 </sst>
 </file>
@@ -3441,7 +3444,7 @@
   <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3595,6 +3598,9 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>329</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
